--- a/test/config.xlsx
+++ b/test/config.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\OneDrive\ドキュメント\UiPath\uipath\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb8d46823d38fffc/ドキュメント/UiPath/uipath/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_6EB4CAF5627EDD8D9FCB0C46929BBE1A46A4B9B1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E796365-64D8-4433-B9EB-96803BB3D404}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_6EB4CAF5627EDD8D9FCB0C46929BBE1A46A4B9B1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6CC118E-F4E5-47E8-B431-FFD82FCFC4AC}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RSRO8six/J9HUFumfR2NbifcZpOdXywqBqbC5SRUyQxbujl6h2+65OSQZsJsSc1CX4FGBkkKVfCXwXTXcHd0Tw==" workbookSaltValue="LQgD751b+2YkcVjyyDzwzA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -429,6 +430,10 @@
     <rPh sb="6" eb="8">
       <t>キサイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -847,17 +852,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
-    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,7 +890,9 @@
       <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -897,7 +904,9 @@
       <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -909,7 +918,9 @@
       <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -921,7 +932,9 @@
       <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -948,10 +961,18 @@
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FX4td2B4qtIcDl2AkybtYQF9yoDDl2WY06uMIc8ITg69FdzCreqlBsmSa1ogFw3G1DaYZtnvgHFrKsmVvodzMA==" saltValue="4evhKr3ji//Zdcz7iqJG+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="B2:B8" name="範囲1"/>
+  </protectedRanges>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{193EAF99-93D1-446F-8AD6-DB50A71F2E27}"/>
